--- a/biology/Zoologie/Amphisbaena_camura/Amphisbaena_camura.xlsx
+++ b/biology/Zoologie/Amphisbaena_camura/Amphisbaena_camura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphisbaena camura est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphisbaena camura est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Paraguay, en Bolivie et au Mato Grosso au Brésil[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Paraguay, en Bolivie et au Mato Grosso au Brésil. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1862 : Catalogues of the Reptiles Obtained during the Explorations of the Parana, Paraguay, Vermejo and Uraguay Rivers, by Capt. Thos. J. Page, U. S. N.; And of Those Procured by Lieut. N. Michler, U. S. Top. Eng., Commander of the Expedition Conducting the Survey of the Atrato River. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 346-359 &amp; 594  (texte intégral).</t>
         </is>
